--- a/biology/Médecine/Défibrillation/Défibrillation.xlsx
+++ b/biology/Médecine/Défibrillation/Défibrillation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9fibrillation</t>
+          <t>Défibrillation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La défibrillation, appelée aussi choc électrique externe est le geste médical consistant à faire passer volontairement et de manière brève un courant électrique dans le cœur lorsque celui-ci présente certains troubles du rythme appelés fibrillation, et destiné à rétablir un rythme cardiaque normal (sinusal).
 Par extension, on parle parfois de défibrillation chimique ou pharmacologique ou de cardioversion chimique ou pharmacologique lorsque la correction de la fibrillation (en l'occurrence, auriculaire) est effectuée par l'administration de médicaments.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9fibrillation</t>
+          <t>Défibrillation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,19 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Autrefois les techniques de réanimation étaient sommaires[1] : jet d'eau glacée sur le visage, eau-de-vie avec esprit de sel d'ammoniac soufflé dans les narines ou imbibé dans des papiers roulés et mis dans les fosses nasales, fer rouge sur le thorax, flagellation des plantes de pied, etc.
-En 1788, Charles Kite (en) publie un essai sur l'utilisation de l'électricité comme moyen potentiel de diagnostiquer et ressusciter des personnes en mort apparente, sans que l'on ait naturellement notion du mode de fonctionnement[2]. En 1803 devant le Royal College of Surgeons (en), Giovanni Aldini applique le galvanisme sur des cadavres de criminels récemment pendus en leur appliquant des chocs électriques externes pour tenter de découvrir le secret de la vie[3]. Le trouble rythmique (appelé par la suite fibrillation ventriculaire) responsable de la mort subite est suspecté en 1849 par Ludwig et Hoffa à partir d'expériences de chocs électriques sur des chiens ou chats[4]. Le terme fibrillation est créé par le français Alfred Vulpian en 1874[5].
-En 1899, les physiologistes genevois Prévost et Battelli découvrent par des expériences sur des chiens que l'on peut induire une fibrillation ventriculaire par des décharges électriques et qu'on peut arrêter cette dernière de même[6].
-Carl Wiggers (en) teste un premier système sur l'animal à la fin des années 1940[7].
-Dans les années 1940, les deux grandes compagnies d'électricité américaines allouent de grands budgets de recherche pour réduire la mortalité (électrocution) de leurs employés victimes d'électrisation. Claude Beck (en) fait la première défibrillation par courant alternatif avec succès au cours d'une intervention sur le cœur en 1947 (électrode directement placée sur le cœur)[8]. Naum Gurvich (en) prouve en 1939 que l'utilisation d'un courant continu est plus efficace et moins dangereuse[9]. Cette technique sera largement utilisée par la suite en URSS mais seulement quelques décennies plus tard dans les pays occidentaux. Il teste également le choc biphasique pour la première fois. Il conçoit ainsi le premier défibrillateur externe à partir de 1952.
-En 1956, Paul Zoll (en) applique les électrodes en courant alternatif non plus sur le cœur mais sur la peau grâce à un défibrillateur plus puissant[10].
-En 1959, Bernard Lown effectue le premier choc électrique permettant la réduction d'une fibrillation auriculaire[11]. C'est lui qui introduira en Occident la technique de la défibrillation par courant continu, utilisée de nos jours.
-En 1960 est construit à Paris le premier stimulateur cardiaque externe couplé à un défibrillateur. À la même époque, Bernard Lown est le premier à utiliser la défibrillation pour traiter une tachycardie ventriculaire (et non plus une fibrillation ventriculaire)[12].
-En 1966 est construit un système transportable pouvant être mis en place dans une ambulance et utilisé en dehors de l'hôpital[13]. Les premiers modèles faisaient près de 70 kg, mais passant très vite sous la barre des 5 kg avec les progrès de la miniaturisation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Autrefois les techniques de réanimation étaient sommaires : jet d'eau glacée sur le visage, eau-de-vie avec esprit de sel d'ammoniac soufflé dans les narines ou imbibé dans des papiers roulés et mis dans les fosses nasales, fer rouge sur le thorax, flagellation des plantes de pied, etc.
+En 1788, Charles Kite (en) publie un essai sur l'utilisation de l'électricité comme moyen potentiel de diagnostiquer et ressusciter des personnes en mort apparente, sans que l'on ait naturellement notion du mode de fonctionnement. En 1803 devant le Royal College of Surgeons (en), Giovanni Aldini applique le galvanisme sur des cadavres de criminels récemment pendus en leur appliquant des chocs électriques externes pour tenter de découvrir le secret de la vie. Le trouble rythmique (appelé par la suite fibrillation ventriculaire) responsable de la mort subite est suspecté en 1849 par Ludwig et Hoffa à partir d'expériences de chocs électriques sur des chiens ou chats. Le terme fibrillation est créé par le français Alfred Vulpian en 1874.
+En 1899, les physiologistes genevois Prévost et Battelli découvrent par des expériences sur des chiens que l'on peut induire une fibrillation ventriculaire par des décharges électriques et qu'on peut arrêter cette dernière de même.
+Carl Wiggers (en) teste un premier système sur l'animal à la fin des années 1940.
+Dans les années 1940, les deux grandes compagnies d'électricité américaines allouent de grands budgets de recherche pour réduire la mortalité (électrocution) de leurs employés victimes d'électrisation. Claude Beck (en) fait la première défibrillation par courant alternatif avec succès au cours d'une intervention sur le cœur en 1947 (électrode directement placée sur le cœur). Naum Gurvich (en) prouve en 1939 que l'utilisation d'un courant continu est plus efficace et moins dangereuse. Cette technique sera largement utilisée par la suite en URSS mais seulement quelques décennies plus tard dans les pays occidentaux. Il teste également le choc biphasique pour la première fois. Il conçoit ainsi le premier défibrillateur externe à partir de 1952.
+En 1956, Paul Zoll (en) applique les électrodes en courant alternatif non plus sur le cœur mais sur la peau grâce à un défibrillateur plus puissant.
+En 1959, Bernard Lown effectue le premier choc électrique permettant la réduction d'une fibrillation auriculaire. C'est lui qui introduira en Occident la technique de la défibrillation par courant continu, utilisée de nos jours.
+En 1960 est construit à Paris le premier stimulateur cardiaque externe couplé à un défibrillateur. À la même époque, Bernard Lown est le premier à utiliser la défibrillation pour traiter une tachycardie ventriculaire (et non plus une fibrillation ventriculaire).
+En 1966 est construit un système transportable pouvant être mis en place dans une ambulance et utilisé en dehors de l'hôpital. Les premiers modèles faisaient près de 70 kg, mais passant très vite sous la barre des 5 kg avec les progrès de la miniaturisation.
 Les premiers défibrillateurs semi-automatiques apparaissent dans les années 1980.
 </t>
         </is>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9fibrillation</t>
+          <t>Défibrillation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,11 +566,13 @@
           <t>Matériel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appareil délivrant le choc électrique s'appelle un défibrillateur. Il fonctionne en règle générale sur batteries afin d'être mobile. Il est constitué au minimum :
 d'un bloc électrique permettant de délivrer un courant électrique calibré en durée, en forme et en intensité,
-d'un moyen de transmission de l'influx électrique vers le patient, soit deux palettes conductrices reliées au bloc électrique par un câble, soit deux électrodes larges et plates, recouvertes d'un gel conducteur, que l'on colle sur le patient. La position des électrodes est soit antéro-postérieure (une électrode, devant, au niveau du sternum, l'autre étant collée dans le dos) ou antéro-latérale (la première électrode étant devant, un peu à droite du sternum, la seconde, sur le côté gauche du thorax). Il semble que le premier positionnement soit légèrement plus efficace pour obtenir la défibrillation[14].
+d'un moyen de transmission de l'influx électrique vers le patient, soit deux palettes conductrices reliées au bloc électrique par un câble, soit deux électrodes larges et plates, recouvertes d'un gel conducteur, que l'on colle sur le patient. La position des électrodes est soit antéro-postérieure (une électrode, devant, au niveau du sternum, l'autre étant collée dans le dos) ou antéro-latérale (la première électrode étant devant, un peu à droite du sternum, la seconde, sur le côté gauche du thorax). Il semble que le premier positionnement soit légèrement plus efficace pour obtenir la défibrillation.
 Suivant sa génération et son usage, il peut être :
 simple,
 associé à un scope permettant de visualiser l'électrocardiogramme du patient,
@@ -582,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9fibrillation</t>
+          <t>Défibrillation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +616,9 @@
           <t>Phénomène de fibrillation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cœur est une pompe, composée d'un organe creux muni de valves, et d'un muscle (le myocarde) qui l'actionne.
 Pour que le sang circule efficacement dans le corps, il faut que toutes les parties du myocarde se contractent ensemble.
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9fibrillation</t>
+          <t>Défibrillation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,13 +655,15 @@
           <t>Fibrillation auriculaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fibrillation auriculaire se diagnostique à l'aide d'un ECG au cabinet d'un médecin, généraliste ou cardiologue. La défibrillation, qui est un des traitements possibles, s'effectue de manière programmée dans un établissement hospitalier.
-Le médecin doit s'assurer de l'absence de caillot dans les oreillettes, soit en visualisant ces dernières par une échocardiographie transœsophagienne[15], soit par la prescription d'un anticoagulant pendant au moins trois semaines.
+Le médecin doit s'assurer de l'absence de caillot dans les oreillettes, soit en visualisant ces dernières par une échocardiographie transœsophagienne, soit par la prescription d'un anticoagulant pendant au moins trois semaines.
 Une anesthésie générale est faite et les palettes du défibrillateur, recouvertes d'un gel conducteur, sont positionnées sur le thorax du patient. Le choc électrique est alors délivré, et si besoin, répété avec une énergie croissante, jusqu'à succès ou échec. Quel que soit le résultat le patient peut sortir quelques heures plus tard s'il n'y a pas de changement de traitement.
 L'anticoagulation doit être par la suite poursuivie au moins un mois, la poursuite au-delà dépendant du score de risque embolique.
-Le risque principal de la technique est son échec. Le risque d'accident vasculaire cérébral par embolie d'un caillot venant des oreillettes, est en principe minimisé si les précautions ci-dessus sont respectées[16].
+Le risque principal de la technique est son échec. Le risque d'accident vasculaire cérébral par embolie d'un caillot venant des oreillettes, est en principe minimisé si les précautions ci-dessus sont respectées.
 </t>
         </is>
       </c>
@@ -654,7 +674,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9fibrillation</t>
+          <t>Défibrillation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -672,7 +692,9 @@
           <t>Arrêt cardiaque par fibrillation ventriculaire</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de certaines maladies (notamment dans certains infarctus du myocarde) ou à la suite d'un choc électrique (électrocution), le cœur peut se mettre à battre de manière anarchique, c'est la fibrillation ventriculaire (FV) ; des signaux électriques parasites font se contracter les fibres de manière désordonnée, la circulation sanguine ne peut plus se faire. Le cœur bat extrêmement rapidement et de manière anarchique (300 à 400 pulsations par minute), cela se traduit par une inefficacité quasi totale de la fonction pompe. Dans une telle situation, la personne s'effondre, elle ne respire plus, son pouls n'est plus perceptible.
 Cette situation évolue très vite (en quelques minutes) vers le décès de la personne ou des dégâts neurologiques irréversibles ; en effet, les organes (dont le cerveau et le myocarde lui-même) ne sont plus alimentés en oxygène et meurent. L'amplitude des mouvements anarchiques du cœur décroît (on passe de la fibrillation dite « à grandes mailles » à la fibrillation dite « à petites mailles »), puis le cœur s'arrête de battre (asystolie). (La distinction entre fibrillation ventriculaire à larges mailles ou à mailles petites ou étroites n'est qu'académique ; elles requièrent toutes deux une défibrillation.)
@@ -684,8 +706,43 @@
 soit au cours d'une exploration électrophysiologique lors d'une stimulation ventriculaire programmée afin de tester la susceptibilité des ventricules à s'emballer après une ou plusieurs extrasystoles ventriculaires. La fibrillation est alors immédiatement réduite par un choc électrique externe.
 soit au cours d'une chirurgie cardiaque après mise en place d'une circulation extra-corporelle : le cœur est alors refroidi (cardioplégie froide) et fibrille spontanément. Son immobilité permet alors au chirurgien d'intervenir en toute tranquillité. À la fin de l'intervention, le cœur est réchauffé et se défibrille parfois tout seul, parfois aidé par un choc électrique.
 Il existe des cas intermédiaires : patient conscient mais faisant une tachycardie ventriculaire pouvant déboucher à court terme sur un arrêt cardiorespiratoire. Dans ce cas, une anesthésie générale doit être faite rapidement avant l'administration du choc électrique externe, toujours très douloureux chez la personne consciente.
-Les conditions de réussite lors d'un arrêt cardiorespiratoire
-Le fait que la défibrillation fasse repartir le cœur ne signifie pas que la personne va survivre ; par ailleurs, si elle survit, du fait de l'hypoxie qui a privé le cerveau d'oxygène, elle peut garder des séquelles neurologiques irréversibles. Cependant, cette démarche est la seule permettant de donner une chance de survie, et de pouvoir revivre dans de bonnes conditions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Défibrillation</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9fibrillation</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Arrêt cardiaque par fibrillation ventriculaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Les conditions de réussite lors d'un arrêt cardiorespiratoire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fait que la défibrillation fasse repartir le cœur ne signifie pas que la personne va survivre ; par ailleurs, si elle survit, du fait de l'hypoxie qui a privé le cerveau d'oxygène, elle peut garder des séquelles neurologiques irréversibles. Cependant, cette démarche est la seule permettant de donner une chance de survie, et de pouvoir revivre dans de bonnes conditions.
 Les chances de survie étant maximales si la défibrillation est précoce, ce geste est délégué à des personnels non-médecins ; ceci a été rendu possible grâce aux progrès de l'informatique, il est en effet possible pour un ordinateur de reconnaître un rythme défibrillable. Ceci a conduit à la création de défibrillateurs semi-automatiques (DSA) et de défibrillateur entièrement automatique (DEA), utilisables par des secouristes et par le grand public.
 </t>
         </is>
